--- a/REGULAR/MENDOZA, ANALUS.xlsx
+++ b/REGULAR/MENDOZA, ANALUS.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
   <si>
     <t>PERIOD</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>07/27,28,31/2023</t>
+  </si>
+  <si>
+    <t>10/31 , 11/3/2023</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1288,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1331,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1395,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1455,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1521,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1584,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1682,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1741,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1806,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1849,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1924,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2110,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2176,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2234,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2300,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2356,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,7 +2431,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2474,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2540,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2596,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2694,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2757,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +2823,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K393" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K397" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3198,12 +3201,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K393"/>
+  <dimension ref="A2:K397"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4785" topLeftCell="A384" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A394" sqref="A394"/>
+      <selection pane="bottomLeft" activeCell="K395" sqref="K395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,7 +3367,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>284.11399999999998</v>
+        <v>283.36399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3374,7 +3377,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>425</v>
+        <v>426.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11592,6 +11595,86 @@
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" s="52">
+        <v>45170</v>
+      </c>
+      <c r="B394" s="20"/>
+      <c r="C394" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D394" s="39"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="20"/>
+      <c r="G394" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H394" s="39"/>
+      <c r="I394" s="9"/>
+      <c r="J394" s="11"/>
+      <c r="K394" s="20"/>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395" s="52">
+        <v>45200</v>
+      </c>
+      <c r="B395" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C395" s="13"/>
+      <c r="D395" s="39">
+        <v>2</v>
+      </c>
+      <c r="E395" s="9"/>
+      <c r="F395" s="20"/>
+      <c r="G395" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H395" s="39"/>
+      <c r="I395" s="9"/>
+      <c r="J395" s="11"/>
+      <c r="K395" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" s="52">
+        <v>45231</v>
+      </c>
+      <c r="B396" s="20"/>
+      <c r="C396" s="13"/>
+      <c r="D396" s="39"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="20"/>
+      <c r="G396" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H396" s="39"/>
+      <c r="I396" s="9"/>
+      <c r="J396" s="11"/>
+      <c r="K396" s="20"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="52">
+        <v>45261</v>
+      </c>
+      <c r="B397" s="20"/>
+      <c r="C397" s="13"/>
+      <c r="D397" s="39"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="20"/>
+      <c r="G397" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H397" s="39"/>
+      <c r="I397" s="9"/>
+      <c r="J397" s="11"/>
+      <c r="K397" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
